--- a/InputData/elec/FSCaFoCC/Fuel Shifting Cost as Frac of Const Cost.xlsx
+++ b/InputData/elec/FSCaFoCC/Fuel Shifting Cost as Frac of Const Cost.xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code Repositories\eps-us\InputData\elec\FSCaFoCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ct/elec/fscafocc/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E598487-955F-ED4E-AB1F-51A17495EC29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="9150"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25320" windowHeight="9160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
     <sheet name="FSCaFoCC" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -225,9 +235,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -297,7 +307,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -307,7 +317,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -316,6 +326,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -597,22 +608,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="51.85546875" customWidth="1"/>
+    <col min="2" max="2" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="12">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
@@ -620,179 +634,179 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="9">
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="9">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>35</v>
       </c>
@@ -806,7 +820,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
@@ -820,7 +834,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
@@ -834,7 +848,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -846,7 +860,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
@@ -857,30 +871,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -888,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -897,7 +911,7 @@
         <v>0.15480929420630368</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -905,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -913,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -921,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -929,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -937,7 +951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -945,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -953,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -961,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -969,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -977,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -985,7 +999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -993,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1001,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>

--- a/InputData/elec/FSCaFoCC/Fuel Shifting Cost as Frac of Const Cost.xlsx
+++ b/InputData/elec/FSCaFoCC/Fuel Shifting Cost as Frac of Const Cost.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ct/elec/fscafocc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/fscafocc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E598487-955F-ED4E-AB1F-51A17495EC29}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC97DFB-C96E-0741-8A89-97C09151DE11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25320" windowHeight="9160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
